--- a/Descriptive Statistics/Categorical/Geographic_Locations__Buyers_Investors__summary.xlsx
+++ b/Descriptive Statistics/Categorical/Geographic_Locations__Buyers_Investors__summary.xlsx
@@ -460,7 +460,7 @@
         <v>51</v>
       </c>
       <c r="C2" t="n">
-        <v>15.64</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>15.64</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
-        <v>15.34</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>10.43</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>9.51</v>
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>8.279999999999999</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="8">
@@ -538,59 +538,59 @@
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>4.6</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>4.29</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>4.29</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="13">
@@ -600,23 +600,23 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2.45</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>2.45</v>
+        <v>1.94</v>
       </c>
     </row>
   </sheetData>

--- a/Descriptive Statistics/Categorical/Geographic_Locations__Buyers_Investors__summary.xlsx
+++ b/Descriptive Statistics/Categorical/Geographic_Locations__Buyers_Investors__summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,14 +453,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>16.5</v>
+        <v>17.99</v>
       </c>
     </row>
     <row r="3">
@@ -470,62 +470,62 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>15.86</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
-        <v>14.89</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>10.36</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>9.710000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>8.74</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>4.85</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>4.53</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>3.88</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="12">
@@ -587,36 +587,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2.27</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
